--- a/Testing/Testing.xlsx
+++ b/Testing/Testing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seans\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\To Delete\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D03E4A-1A06-4BDE-A28F-057AEDD60375}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -376,7 +368,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,19 +488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -518,15 +497,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -545,11 +515,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -563,50 +557,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,8 +572,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -646,8 +616,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,30 +1132,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" customWidth="1"/>
-    <col min="5" max="5" width="21.26953125" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" customWidth="1"/>
-    <col min="8" max="8" width="32.81640625" customWidth="1"/>
-    <col min="9" max="9" width="33.81640625" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" customWidth="1"/>
-    <col min="12" max="12" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1163,590 +1164,592 @@
       <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+    <row r="4" spans="1:12" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="16" t="s">
+      <c r="K4" s="13"/>
+      <c r="L4" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="178.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
+    <row r="5" spans="1:12" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="16" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="222.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+    <row r="6" spans="1:12" ht="222.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="16" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="174.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+    <row r="7" spans="1:12" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="13"/>
+      <c r="L7" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
+    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="12" t="s">
+      <c r="K8" s="9"/>
+      <c r="L8" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
+    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="15">
         <v>2</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="25">
+      <c r="K9" s="9"/>
+      <c r="L9" s="37"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>7</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-    </row>
-    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="25">
+      <c r="K10" s="9"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="17">
         <v>2</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
-    </row>
-    <row r="12" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A12" s="25">
+      <c r="K11" s="9"/>
+      <c r="L11" s="37"/>
+    </row>
+    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
         <v>9</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="17">
         <v>2</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-    </row>
-    <row r="13" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="37"/>
+    </row>
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="32"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="25"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="37"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Testing/Testing.xlsx
+++ b/Testing/Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\To Delete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pete\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D03E4A-1A06-4BDE-A28F-057AEDD60375}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DC4DB4-49D2-417F-9C99-A4C4986D185A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13605" yWindow="5910" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>Purpose:</t>
   </si>
@@ -363,6 +363,19 @@
   </si>
   <si>
     <t>Alert is returned with no data</t>
+  </si>
+  <si>
+    <t>dislays covid cases</t>
+  </si>
+  <si>
+    <t>zooms in and out on map</t>
+  </si>
+  <si>
+    <t>returns an alert with
+with covid data</t>
+  </si>
+  <si>
+    <t>returns empty alert</t>
   </si>
 </sst>
 </file>
@@ -543,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -616,12 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -649,6 +656,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,7 +1180,7 @@
       <c r="D1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1172,22 +1188,22 @@
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1199,7 +1215,7 @@
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -1237,7 +1253,7 @@
       <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1273,7 +1289,7 @@
       <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -1309,7 +1325,7 @@
       <c r="C6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -1345,7 +1361,7 @@
       <c r="C7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -1381,7 +1397,7 @@
       <c r="C8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="28" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1417,7 +1433,7 @@
       <c r="C9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1439,9 +1455,9 @@
         <v>14</v>
       </c>
       <c r="K9" s="9"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -1473,7 +1489,9 @@
         <v>14</v>
       </c>
       <c r="K10" s="9"/>
-      <c r="L10" s="37"/>
+      <c r="L10" s="35" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
@@ -1507,7 +1525,9 @@
         <v>14</v>
       </c>
       <c r="K11" s="9"/>
-      <c r="L11" s="37"/>
+      <c r="L11" s="35" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
@@ -1541,7 +1561,9 @@
         <v>14</v>
       </c>
       <c r="K12" s="9"/>
-      <c r="L12" s="37"/>
+      <c r="L12" s="38" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
@@ -1567,7 +1589,9 @@
         <v>14</v>
       </c>
       <c r="K13" s="9"/>
-      <c r="L13" s="37"/>
+      <c r="L13" s="35" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
